--- a/Rainbow-Six-Siege-Weapon-Statistics.xlsx
+++ b/Rainbow-Six-Siege-Weapon-Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Rainbow-Six-Siege-Weapon-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB7C524-8180-4D12-AC7E-B7CE7031A6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0712D74F-EEFF-4F37-B465-901411DAC4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1284" yWindow="492" windowWidth="18996" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,14 +1205,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="42" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="42" width="4" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -5248,127 +5241,127 @@
         <v>48</v>
       </c>
       <c r="B33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="E33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="F33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="G33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="H33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="I33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="J33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="K33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="L33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="M33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="N33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="O33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="P33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="R33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="S33" s="6">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="T33" s="4">
-        <v>40.25</v>
+        <v>39</v>
       </c>
       <c r="U33" s="4">
-        <v>39.099999999999987</v>
+        <v>38</v>
       </c>
       <c r="V33" s="4">
-        <v>36.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="W33" s="4">
-        <v>35.65</v>
+        <v>35</v>
       </c>
       <c r="X33" s="4">
-        <v>33.349999999999987</v>
+        <v>32</v>
       </c>
       <c r="Y33" s="4">
-        <v>32.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="Z33" s="4">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="AA33" s="4">
-        <v>28.75</v>
+        <v>28</v>
       </c>
       <c r="AB33" s="4">
-        <v>26.45</v>
+        <v>26</v>
       </c>
       <c r="AC33" s="4">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="AD33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AE33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AF33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AG33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AH33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AI33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AJ33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AK33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AL33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AM33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AN33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AO33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AP33" s="6">
-        <v>24.15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -16708,14 +16701,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="42" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="42" width="4" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -20751,127 +20737,127 @@
         <v>48</v>
       </c>
       <c r="B33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="C33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="D33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="E33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="F33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="G33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="H33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="I33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="J33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="K33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="L33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="M33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="N33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="O33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="P33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="R33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="S33" s="20">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="T33" s="20">
-        <v>40.25</v>
+        <v>39</v>
       </c>
       <c r="U33" s="20">
-        <v>39.099999999999987</v>
+        <v>38</v>
       </c>
       <c r="V33" s="20">
-        <v>36.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="W33" s="20">
-        <v>35.65</v>
+        <v>35</v>
       </c>
       <c r="X33" s="20">
-        <v>33.349999999999987</v>
+        <v>32</v>
       </c>
       <c r="Y33" s="20">
-        <v>32.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="Z33" s="20">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="AA33" s="20">
-        <v>28.75</v>
+        <v>28</v>
       </c>
       <c r="AB33" s="20">
-        <v>26.45</v>
+        <v>26</v>
       </c>
       <c r="AC33" s="20">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="AD33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AE33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AF33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AG33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AH33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AI33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AJ33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AK33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AL33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AM33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AN33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AO33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
       <c r="AP33" s="20">
-        <v>24.15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -32459,8 +32445,8 @@
   <conditionalFormatting sqref="B33:AQ33">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="num" val="24.15"/>
-        <cfvo type="num" val="41.4"/>
+        <cfvo type="num" val="24"/>
+        <cfvo type="num" val="40"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FFB6668E"/>
       </colorScale>
@@ -37318,127 +37304,127 @@
         <v>48</v>
       </c>
       <c r="B33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="G33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="I33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="J33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="K33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="N33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="O33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="P33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="Q33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="R33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="S33" s="20">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="T33" s="20">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="U33" s="20">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="V33" s="20">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="W33" s="20">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="X33" s="20">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Y33" s="20">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="Z33" s="20">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AA33" s="20">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AB33" s="20">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AC33" s="20">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AI33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AO33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AP33" s="20">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:50">

--- a/Rainbow-Six-Siege-Weapon-Statistics.xlsx
+++ b/Rainbow-Six-Siege-Weapon-Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Rainbow-Six-Siege-Weapon-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330AF298-98BA-4D20-967D-883F069B7DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0D1E97-8A9F-4B10-83F0-E8134FA29A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1284" yWindow="492" windowWidth="18996" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
     <t>The color gradient illustrates the damage compared to the weapon's base damage.</t>
   </si>
   <si>
-    <t>The color gradient illustrates the DPS compared to the highest DPS of the weapon's type.</t>
+    <t>The color gradient illustrates the DPS compared to the highest DPS of the weapon's type (excluding extended barrel stats).</t>
   </si>
 </sst>
 </file>
@@ -13515,127 +13515,127 @@
         <v>86</v>
       </c>
       <c r="B95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="R95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="S95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="T95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="U95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="V95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="W95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="X95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Y95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Z95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AA95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AB95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AD95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AE95" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF95" s="4">
+        <v>59</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>57</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>55</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>52</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>50</v>
+      </c>
+      <c r="AK95" s="4">
         <v>48</v>
       </c>
-      <c r="AG95" s="4">
+      <c r="AL95" s="4">
         <v>46</v>
       </c>
-      <c r="AH95" s="4">
-        <v>45</v>
-      </c>
-      <c r="AI95" s="4">
-        <v>43</v>
-      </c>
-      <c r="AJ95" s="4">
-        <v>41</v>
-      </c>
-      <c r="AK95" s="4">
+      <c r="AM95" s="4">
+        <v>44</v>
+      </c>
+      <c r="AN95" s="4">
+        <v>42</v>
+      </c>
+      <c r="AO95" s="10">
         <v>40</v>
       </c>
-      <c r="AL95" s="4">
-        <v>38</v>
-      </c>
-      <c r="AM95" s="4">
-        <v>36</v>
-      </c>
-      <c r="AN95" s="4">
-        <v>34</v>
-      </c>
-      <c r="AO95" s="4">
-        <v>33</v>
-      </c>
       <c r="AP95" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AR95" s="10" t="s">
         <v>81</v>
@@ -33619,127 +33619,127 @@
         <v>86</v>
       </c>
       <c r="B95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="R95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="S95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="T95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="U95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="V95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="W95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="X95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Y95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Z95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AA95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AB95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AD95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AE95" s="22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF95" s="22">
+        <v>59</v>
+      </c>
+      <c r="AG95" s="22">
+        <v>57</v>
+      </c>
+      <c r="AH95" s="22">
+        <v>55</v>
+      </c>
+      <c r="AI95" s="22">
+        <v>52</v>
+      </c>
+      <c r="AJ95" s="22">
+        <v>50</v>
+      </c>
+      <c r="AK95" s="22">
         <v>48</v>
       </c>
-      <c r="AG95" s="22">
+      <c r="AL95" s="22">
         <v>46</v>
       </c>
-      <c r="AH95" s="22">
-        <v>45</v>
-      </c>
-      <c r="AI95" s="22">
-        <v>43</v>
-      </c>
-      <c r="AJ95" s="22">
-        <v>41</v>
-      </c>
-      <c r="AK95" s="22">
+      <c r="AM95" s="22">
+        <v>44</v>
+      </c>
+      <c r="AN95" s="22">
+        <v>42</v>
+      </c>
+      <c r="AO95" s="22">
         <v>40</v>
       </c>
-      <c r="AL95" s="22">
-        <v>38</v>
-      </c>
-      <c r="AM95" s="22">
-        <v>36</v>
-      </c>
-      <c r="AN95" s="22">
-        <v>34</v>
-      </c>
-      <c r="AO95" s="22">
-        <v>33</v>
-      </c>
       <c r="AP95" s="22">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AR95" s="10" t="s">
         <v>81</v>
@@ -42281,8 +42281,8 @@
   <conditionalFormatting sqref="B95:AQ95">
     <cfRule type="colorScale" priority="89">
       <colorScale>
-        <cfvo type="num" val="32"/>
-        <cfvo type="num" val="49"/>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="60"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -55154,127 +55154,127 @@
         <v>86</v>
       </c>
       <c r="B95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="C95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="D95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="E95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="F95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="G95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="H95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="I95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="J95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="K95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="L95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="M95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="N95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="O95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="P95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="Q95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="R95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="S95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="T95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="U95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="V95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="W95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="X95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="Y95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="Z95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="AA95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="AB95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="AC95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="AD95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="AE95" s="22">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="AF95" s="22">
+        <v>541</v>
+      </c>
+      <c r="AG95" s="22">
+        <v>522</v>
+      </c>
+      <c r="AH95" s="22">
+        <v>504</v>
+      </c>
+      <c r="AI95" s="22">
+        <v>477</v>
+      </c>
+      <c r="AJ95" s="22">
+        <v>458</v>
+      </c>
+      <c r="AK95" s="22">
         <v>440</v>
       </c>
-      <c r="AG95" s="22">
+      <c r="AL95" s="22">
         <v>422</v>
       </c>
-      <c r="AH95" s="22">
-        <v>412</v>
-      </c>
-      <c r="AI95" s="22">
-        <v>394</v>
-      </c>
-      <c r="AJ95" s="22">
-        <v>376</v>
-      </c>
-      <c r="AK95" s="22">
+      <c r="AM95" s="22">
+        <v>403</v>
+      </c>
+      <c r="AN95" s="22">
+        <v>385</v>
+      </c>
+      <c r="AO95" s="22">
         <v>367</v>
       </c>
-      <c r="AL95" s="22">
-        <v>348</v>
-      </c>
-      <c r="AM95" s="22">
-        <v>330</v>
-      </c>
-      <c r="AN95" s="22">
-        <v>312</v>
-      </c>
-      <c r="AO95" s="22">
-        <v>302</v>
-      </c>
       <c r="AP95" s="22">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="AR95" s="10" t="s">
         <v>81</v>
@@ -63796,8 +63796,8 @@
   <conditionalFormatting sqref="B93:AQ93">
     <cfRule type="colorScale" priority="87">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63806,8 +63806,8 @@
   <conditionalFormatting sqref="B94:AQ94">
     <cfRule type="colorScale" priority="88">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63816,8 +63816,8 @@
   <conditionalFormatting sqref="B95:AQ95">
     <cfRule type="colorScale" priority="89">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63826,8 +63826,8 @@
   <conditionalFormatting sqref="B96:AQ96">
     <cfRule type="colorScale" priority="90">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63836,8 +63836,8 @@
   <conditionalFormatting sqref="B97:AQ97">
     <cfRule type="colorScale" priority="91">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63846,8 +63846,8 @@
   <conditionalFormatting sqref="B98:AQ98">
     <cfRule type="colorScale" priority="92">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63856,8 +63856,8 @@
   <conditionalFormatting sqref="B99:AQ99">
     <cfRule type="colorScale" priority="93">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>
@@ -63866,8 +63866,8 @@
   <conditionalFormatting sqref="B100:AQ100">
     <cfRule type="colorScale" priority="94">
       <colorScale>
-        <cfvo type="num" val="293"/>
-        <cfvo type="num" val="525"/>
+        <cfvo type="num" val="324"/>
+        <cfvo type="num" val="550"/>
         <color rgb="FFFFFFFF"/>
         <color rgb="FF8771BD"/>
       </colorScale>

--- a/Rainbow-Six-Siege-Weapon-Statistics.xlsx
+++ b/Rainbow-Six-Siege-Weapon-Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Rainbow-Six-Siege-Weapon-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0D1E97-8A9F-4B10-83F0-E8134FA29A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A64C087-1634-4E3A-9B01-6646EBFACDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1284" yWindow="492" windowWidth="18996" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,13 +542,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -741,134 +746,135 @@
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="5">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="7">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="8"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="9">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="10"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="11">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="12"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="13">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="12"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="14"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="15">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="14"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="16"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="17">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="16"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="17">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="18">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="19">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="19">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="20">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="21">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="21">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="22">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="22">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="23">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="23">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="24">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="24">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="25">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="25">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="A" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1266,7 +1272,7 @@
       <c r="AP1" s="27"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="29" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/", "A detailed explanation can be found here")</f>
         <v>A detailed explanation can be found here</v>
       </c>
@@ -1313,7 +1319,7 @@
       <c r="AP2" s="27"/>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="29" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/#damage-per-bullet", "Damage per bullet")</f>
         <v>Damage per bullet</v>
       </c>
@@ -21370,7 +21376,7 @@
       <c r="AP1" s="27"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="29" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/", "A detailed explanation can be found here")</f>
         <v>A detailed explanation can be found here</v>
       </c>
@@ -21417,7 +21423,7 @@
       <c r="AP2" s="27"/>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="29" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/#damage-per-shot", "Damage per shot")</f>
         <v>Damage per shot</v>
       </c>
@@ -42905,7 +42911,7 @@
       <c r="AP1" s="27"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="29" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/", "A detailed explanation can be found here")</f>
         <v>A detailed explanation can be found here</v>
       </c>
@@ -42952,7 +42958,7 @@
       <c r="AP2" s="27"/>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="29" t="str">
         <f>HYPERLINK("https://github.com/hanslhansl/R6S-Weapon-Statistics/#damage-per-second---dps", "Damage per second")</f>
         <v>Damage per second</v>
       </c>
